--- a/文档/Go/GoLang.xlsx
+++ b/文档/Go/GoLang.xlsx
@@ -1,24 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="basic" sheetId="1" r:id="rId1"/>
+    <sheet name="questions " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <r>
+      <t xml:space="preserve">type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="UKaiCN"/>
+        <family val="2"/>
+      </rPr>
+      <t>类型名字 底层类型</t>
+    </r>
+  </si>
+  <si>
+    <t>类型声明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int uint类型的bit位数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟cpu和编译器有关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位有符号整型 int32  unicode字符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位无符号整型 uint8  代表了 ASCII 码的一个字符。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>strconv包实现了基本数据类型和其字符串表示的相互转换。</t>
+  </si>
+  <si>
+    <t>strconv.intSize 是未导出的常量，外部不能用？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位byte序列构成的字符串，约定但不必须是utf-8编码的文本。字符串可以为空但不能是nil，其值不可变。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">str </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unsafe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.Pointer</t>
+    </r>
+  </si>
+  <si>
+    <t>其实[]byte和string的差别是更改变量的时候array的内容可以被更改。</t>
+  </si>
+  <si>
+    <t>因为string的指针指向的内容是不可以更改的，所以每更改一次字符串，就得重新分配一次内存，之前分配空间的还得由gc回收，这是导致string操作低效的根本原因。</t>
+  </si>
+  <si>
+    <t>iota是一个预定义的标识符，代表顺序按行增加的无符号整数，每个const声明单元（被括号括起来）相互独立，分别从0开始。</t>
+  </si>
+  <si>
+    <t>iota</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zhangboyu/p/7623712.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF8959A8"/>
+      <name val="LiberationMono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="UKaiCN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF404040"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,22 +203,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +523,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="37.5">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="56.25">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/文档/Go/GoLang.xlsx
+++ b/文档/Go/GoLang.xlsx
@@ -14,8 +14,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不定类型的指针</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <r>
       <t xml:space="preserve">type </t>
@@ -119,13 +155,118 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/zhangboyu/p/7623712.html</t>
+  </si>
+  <si>
+    <t>string和[]byte的相互转换</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果将一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋值个另外一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了，那么他们是共享底层数组的</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元素取址的原因是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ArialMT"/>
+        <family val="2"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能随着元素数量的增长而重新分配更大的内存空间，从而可能导致之前的地址无效</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +325,60 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="UKaiCN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,6 +414,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -617,6 +819,24 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="31.5">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25">
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="B16" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -624,6 +844,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -653,5 +874,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/Go/GoLang.xlsx
+++ b/文档/Go/GoLang.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="0" windowWidth="2130" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
     <sheet name="questions " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
